--- a/Checklists/Mobile_App_Security_Checklist-Japanese_1.1.3.1.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-Japanese_1.1.3.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\owasp-mstg\owasp-mstg-20200426-2049.work\Checklists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\owasp-mstg\checklist.work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE556FA-C2D3-403A-B96F-ED862E21D285}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B01F36C-6CED-4FEE-81BB-F63A4D63A48A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="110" windowWidth="18840" windowHeight="9920" tabRatio="608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="280" windowWidth="18780" windowHeight="9920" tabRatio="608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="6" r:id="rId1"/>
@@ -3168,13 +3168,34 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3209,12 +3230,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3224,20 +3239,17 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="23" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3275,18 +3287,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4616,48 +4616,48 @@
   <sheetData>
     <row r="1" spans="2:4" ht="8" customHeight="1" x14ac:dyDescent="0.65"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="145" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="140"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B3" s="141"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="143"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="150"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B4" s="141"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="143"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="150"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B5" s="141"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="143"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="150"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B6" s="141"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="143"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="150"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B7" s="141"/>
-      <c r="C7" s="142"/>
-      <c r="D7" s="143"/>
+      <c r="B7" s="148"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
     </row>
     <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.65">
-      <c r="B8" s="144"/>
-      <c r="C8" s="145"/>
-      <c r="D8" s="146"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="152"/>
+      <c r="D8" s="153"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B9" s="147" t="s">
+      <c r="B9" s="154" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="148"/>
-      <c r="D9" s="149"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="142"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B10" s="13" t="s">
@@ -4667,19 +4667,19 @@
       <c r="D10" s="15"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="139" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="135"/>
+      <c r="C11" s="140"/>
       <c r="D11" s="16">
         <v>1.2</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B12" s="134" t="s">
+      <c r="B12" s="139" t="s">
         <v>215</v>
       </c>
-      <c r="C12" s="135"/>
+      <c r="C12" s="140"/>
       <c r="D12" s="63" t="str">
         <f>HYPERLINK(CONCATENATE(
 "https://github.com/OWASP/owasp-masvs/blob/",
@@ -4689,19 +4689,19 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B13" s="134" t="s">
+      <c r="B13" s="139" t="s">
         <v>216</v>
       </c>
-      <c r="C13" s="135"/>
+      <c r="C13" s="140"/>
       <c r="D13" s="16" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="139" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="135"/>
+      <c r="C14" s="140"/>
       <c r="D14" s="63" t="str">
         <f>HYPERLINK(CONCATENATE(
 "https://github.com/OWASP/owasp-mstg/blob/",
@@ -4711,69 +4711,69 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B15" s="150" t="s">
+      <c r="B15" s="155" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="151"/>
-      <c r="D15" s="152"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="157"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B16" s="134" t="s">
+      <c r="B16" s="139" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="135"/>
+      <c r="C16" s="140"/>
       <c r="D16" s="16"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B17" s="136" t="s">
+      <c r="B17" s="134" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="137"/>
+      <c r="C17" s="144"/>
       <c r="D17" s="16"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B18" s="134" t="s">
+      <c r="B18" s="139" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="135"/>
+      <c r="C18" s="140"/>
       <c r="D18" s="16"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B19" s="134" t="s">
+      <c r="B19" s="139" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="135"/>
+      <c r="C19" s="140"/>
       <c r="D19" s="16"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B20" s="134" t="s">
+      <c r="B20" s="139" t="s">
         <v>147</v>
       </c>
-      <c r="C20" s="135"/>
+      <c r="C20" s="140"/>
       <c r="D20" s="16"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B21" s="134" t="s">
+      <c r="B21" s="139" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="135"/>
+      <c r="C21" s="140"/>
       <c r="D21" s="16" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B22" s="134" t="s">
+      <c r="B22" s="139" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="135"/>
+      <c r="C22" s="140"/>
       <c r="D22" s="16" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B23" s="148"/>
-      <c r="C23" s="148"/>
-      <c r="D23" s="149"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="142"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B24" s="13" t="s">
@@ -4790,37 +4790,37 @@
       <c r="D25" s="16"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B26" s="134" t="s">
+      <c r="B26" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="C26" s="135"/>
+      <c r="C26" s="140"/>
       <c r="D26" s="16"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B27" s="134" t="s">
+      <c r="B27" s="139" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="135"/>
+      <c r="C27" s="140"/>
       <c r="D27" s="16"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B28" s="134" t="s">
+      <c r="B28" s="139" t="s">
         <v>154</v>
       </c>
-      <c r="C28" s="135"/>
+      <c r="C28" s="140"/>
       <c r="D28" s="16"/>
     </row>
     <row r="29" spans="2:4" ht="52" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B29" s="157" t="s">
+      <c r="B29" s="143" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="135"/>
+      <c r="C29" s="140"/>
       <c r="D29" s="16"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B30" s="148"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="149"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="142"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B31" s="13" t="s">
@@ -4837,37 +4837,37 @@
       <c r="D32" s="16"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B33" s="134" t="s">
+      <c r="B33" s="139" t="s">
         <v>157</v>
       </c>
-      <c r="C33" s="135"/>
+      <c r="C33" s="140"/>
       <c r="D33" s="16"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B34" s="134" t="s">
+      <c r="B34" s="139" t="s">
         <v>153</v>
       </c>
-      <c r="C34" s="135"/>
+      <c r="C34" s="140"/>
       <c r="D34" s="16"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B35" s="134" t="s">
+      <c r="B35" s="139" t="s">
         <v>154</v>
       </c>
-      <c r="C35" s="135"/>
+      <c r="C35" s="140"/>
       <c r="D35" s="16"/>
     </row>
     <row r="36" spans="2:4" ht="52" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B36" s="157" t="s">
+      <c r="B36" s="143" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="135"/>
+      <c r="C36" s="140"/>
       <c r="D36" s="16"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B37" s="148"/>
-      <c r="C37" s="148"/>
-      <c r="D37" s="149"/>
+      <c r="B37" s="141"/>
+      <c r="C37" s="141"/>
+      <c r="D37" s="142"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B38" s="13" t="s">
@@ -4877,97 +4877,100 @@
       <c r="D38" s="15"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B39" s="153"/>
-      <c r="C39" s="154"/>
-      <c r="D39" s="155"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="137"/>
+      <c r="D39" s="138"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B40" s="136" t="s">
+      <c r="B40" s="134" t="s">
         <v>161</v>
       </c>
-      <c r="C40" s="156"/>
+      <c r="C40" s="135"/>
       <c r="D40" s="19"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B41" s="136" t="s">
+      <c r="B41" s="134" t="s">
         <v>162</v>
       </c>
-      <c r="C41" s="156"/>
+      <c r="C41" s="135"/>
       <c r="D41" s="19"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B42" s="136" t="s">
+      <c r="B42" s="134" t="s">
         <v>163</v>
       </c>
-      <c r="C42" s="156"/>
+      <c r="C42" s="135"/>
       <c r="D42" s="19"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B43" s="136" t="s">
+      <c r="B43" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="C43" s="156"/>
+      <c r="C43" s="135"/>
       <c r="D43" s="20"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B44" s="136" t="s">
+      <c r="B44" s="134" t="s">
         <v>165</v>
       </c>
-      <c r="C44" s="156"/>
+      <c r="C44" s="135"/>
       <c r="D44" s="19"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B45" s="153"/>
-      <c r="C45" s="154"/>
-      <c r="D45" s="155"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="137"/>
+      <c r="D45" s="138"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B46" s="136" t="s">
+      <c r="B46" s="134" t="s">
         <v>161</v>
       </c>
-      <c r="C46" s="156"/>
+      <c r="C46" s="135"/>
       <c r="D46" s="19"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B47" s="136" t="s">
+      <c r="B47" s="134" t="s">
         <v>162</v>
       </c>
-      <c r="C47" s="156"/>
+      <c r="C47" s="135"/>
       <c r="D47" s="19"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B48" s="136" t="s">
+      <c r="B48" s="134" t="s">
         <v>163</v>
       </c>
-      <c r="C48" s="156"/>
+      <c r="C48" s="135"/>
       <c r="D48" s="19"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B49" s="136" t="s">
+      <c r="B49" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="C49" s="156"/>
+      <c r="C49" s="135"/>
       <c r="D49" s="20"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B50" s="136" t="s">
+      <c r="B50" s="134" t="s">
         <v>165</v>
       </c>
-      <c r="C50" s="156"/>
+      <c r="C50" s="135"/>
       <c r="D50" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B39:D39"/>
@@ -4982,19 +4985,16 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:C46"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5040,11 +5040,11 @@
       <c r="F3" s="24"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.6">
-      <c r="B4" s="158"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="162"/>
     </row>
     <row r="5" spans="2:24" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B5" s="25"/>
@@ -5059,16 +5059,16 @@
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
-      <c r="G6" s="168" t="s">
+      <c r="G6" s="172" t="s">
         <v>167</v>
       </c>
-      <c r="H6" s="169"/>
-      <c r="I6" s="170"/>
-      <c r="V6" s="168" t="s">
+      <c r="H6" s="173"/>
+      <c r="I6" s="174"/>
+      <c r="V6" s="172" t="s">
         <v>76</v>
       </c>
-      <c r="W6" s="169"/>
-      <c r="X6" s="170"/>
+      <c r="W6" s="173"/>
+      <c r="X6" s="174"/>
     </row>
     <row r="7" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B7" s="27"/>
@@ -5083,18 +5083,18 @@
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
-      <c r="G8" s="159">
+      <c r="G8" s="163">
         <f>AVERAGE(G43:G50)*5</f>
         <v>0</v>
       </c>
-      <c r="H8" s="160"/>
-      <c r="I8" s="161"/>
-      <c r="V8" s="159">
+      <c r="H8" s="164"/>
+      <c r="I8" s="165"/>
+      <c r="V8" s="163">
         <f>AVERAGE(K43:K50)*5</f>
         <v>0</v>
       </c>
-      <c r="W8" s="160"/>
-      <c r="X8" s="161"/>
+      <c r="W8" s="164"/>
+      <c r="X8" s="165"/>
     </row>
     <row r="9" spans="2:24" ht="91" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B9" s="26"/>
@@ -5102,12 +5102,12 @@
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="164"/>
-      <c r="V9" s="162"/>
-      <c r="W9" s="163"/>
-      <c r="X9" s="164"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="168"/>
+      <c r="V9" s="166"/>
+      <c r="W9" s="167"/>
+      <c r="X9" s="168"/>
     </row>
     <row r="10" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B10" s="27"/>
@@ -5115,12 +5115,12 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="163"/>
-      <c r="I10" s="164"/>
-      <c r="V10" s="162"/>
-      <c r="W10" s="163"/>
-      <c r="X10" s="164"/>
+      <c r="G10" s="166"/>
+      <c r="H10" s="167"/>
+      <c r="I10" s="168"/>
+      <c r="V10" s="166"/>
+      <c r="W10" s="167"/>
+      <c r="X10" s="168"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B11" s="27"/>
@@ -5128,19 +5128,19 @@
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="166"/>
-      <c r="I11" s="167"/>
-      <c r="V11" s="165"/>
-      <c r="W11" s="166"/>
-      <c r="X11" s="167"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="171"/>
+      <c r="V11" s="169"/>
+      <c r="W11" s="170"/>
+      <c r="X11" s="171"/>
     </row>
     <row r="12" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="171"/>
-      <c r="C12" s="171"/>
-      <c r="D12" s="171"/>
-      <c r="E12" s="171"/>
-      <c r="F12" s="171"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="158"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.6">
       <c r="B13" s="28"/>
@@ -5164,11 +5164,11 @@
       <c r="F15" s="27"/>
     </row>
     <row r="16" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B16" s="171"/>
-      <c r="C16" s="171"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B17" s="28"/>
@@ -5216,18 +5216,18 @@
     </row>
     <row r="35" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="41" spans="3:11" x14ac:dyDescent="0.6">
-      <c r="D41" s="172" t="s">
+      <c r="D41" s="159" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="173"/>
-      <c r="F41" s="173"/>
-      <c r="G41" s="174"/>
-      <c r="H41" s="172" t="s">
+      <c r="E41" s="160"/>
+      <c r="F41" s="160"/>
+      <c r="G41" s="161"/>
+      <c r="H41" s="159" t="s">
         <v>75</v>
       </c>
-      <c r="I41" s="173"/>
-      <c r="J41" s="173"/>
-      <c r="K41" s="174"/>
+      <c r="I41" s="160"/>
+      <c r="J41" s="160"/>
+      <c r="K41" s="161"/>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.6">
       <c r="D42" s="32" t="s">
@@ -5553,6 +5553,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="V8:X11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="D41:G41"/>
@@ -5560,8 +5562,6 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G8:I11"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="V8:X11"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <conditionalFormatting sqref="F14">
@@ -5605,7 +5605,7 @@
   </sheetPr>
   <dimension ref="B1:M94"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="19" x14ac:dyDescent="0.65"/>
   <cols>
@@ -7813,7 +7813,7 @@
   </sheetPr>
   <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="19" x14ac:dyDescent="0.65"/>
   <cols>
@@ -8335,7 +8335,7 @@
   </sheetPr>
   <dimension ref="B1:M94"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="19" x14ac:dyDescent="0.65"/>
   <cols>
@@ -10526,7 +10526,7 @@
   </sheetPr>
   <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="19" x14ac:dyDescent="0.65"/>
   <cols>
